--- a/bid-service/bid-soybean/src/main/resources/model/annex.xlsx
+++ b/bid-service/bid-soybean/src/main/resources/model/annex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbc/Development/teleinfo/bid-admin/bid-service/bid-soybean/src/main/resources/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA60F7-1048-5C4E-B01F-F0D81CFE154B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F03D7C-2BAF-C74A-8665-D175A1406F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6560" windowWidth="33600" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="4440" windowWidth="33600" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annex" sheetId="1" r:id="rId1"/>
@@ -730,7 +730,7 @@
   <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -739,7 +739,7 @@
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="53.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.1640625" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.83203125" customWidth="1"/>
     <col min="8" max="8" width="23.5" customWidth="1"/>

--- a/bid-service/bid-soybean/src/main/resources/model/annex.xlsx
+++ b/bid-service/bid-soybean/src/main/resources/model/annex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbc/Development/teleinfo/bid-admin/bid-service/bid-soybean/src/main/resources/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F03D7C-2BAF-C74A-8665-D175A1406F1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78721425-BBD6-F242-B896-792BBB39D36B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="4440" windowWidth="33600" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4440" windowWidth="33600" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annex" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>单位名称</t>
   </si>
@@ -70,12 +70,6 @@
     <t>其中已返京人数(G)</t>
   </si>
   <si>
-    <t>伞颉</t>
-  </si>
-  <si>
-    <t>15101014863</t>
-  </si>
-  <si>
     <t>提交人</t>
   </si>
   <si>
@@ -86,10 +80,6 @@
   </si>
   <si>
     <t>打卡时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京泰尔英福网络科技有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -729,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -900,75 +890,21 @@
       </c>
     </row>
     <row r="3" spans="1:23" ht="16" thickBot="1">
-      <c r="A3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="8">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8">
-        <v>7</v>
-      </c>
-      <c r="E3" s="8">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8">
-        <v>4</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="7">
-        <v>14</v>
-      </c>
-      <c r="J3" s="8">
-        <v>14</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1">
       <c r="A4" s="6"/>
@@ -1040,46 +976,46 @@
     </row>
     <row r="10" spans="1:23" s="2" customFormat="1">
       <c r="A10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="E10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="H10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +1032,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:V2 A9:X9 B3:V3 W1:X3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:V2 A9:X9 W1:X2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/bid-service/bid-soybean/src/main/resources/model/annex.xlsx
+++ b/bid-service/bid-soybean/src/main/resources/model/annex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbc/Development/teleinfo/bid-admin/bid-service/bid-soybean/src/main/resources/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78721425-BBD6-F242-B896-792BBB39D36B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BE3B9A-3E57-7F43-927B-8A5B3239FBB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4440" windowWidth="33600" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>单位名称</t>
   </si>
@@ -115,6 +115,10 @@
   </si>
   <si>
     <t>是否在隔离期</t>
+  </si>
+  <si>
+    <t>是否离开过北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -719,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -991,30 +995,33 @@
         <v>21</v>
       </c>
       <c r="F10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>28</v>
       </c>
     </row>

--- a/bid-service/bid-soybean/src/main/resources/model/annex.xlsx
+++ b/bid-service/bid-soybean/src/main/resources/model/annex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbc/Development/teleinfo/bid-admin/bid-service/bid-soybean/src/main/resources/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BE3B9A-3E57-7F43-927B-8A5B3239FBB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31616C9-23E9-F24D-88EB-BEFF572F7D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4440" windowWidth="33600" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>单位名称</t>
   </si>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>是否离开过北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1024,6 +1028,9 @@
       <c r="O10" s="11" t="s">
         <v>28</v>
       </c>
+      <c r="P10" s="11" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/bid-service/bid-soybean/src/main/resources/model/annex.xlsx
+++ b/bid-service/bid-soybean/src/main/resources/model/annex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tbc/Development/teleinfo/bid-admin/bid-service/bid-soybean/src/main/resources/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31616C9-23E9-F24D-88EB-BEFF572F7D48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B071CE2-1A03-C24D-A824-D2EC4D88ACE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4440" windowWidth="33600" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="9760" windowWidth="33600" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annex" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>单位名称</t>
   </si>
   <si>
-    <t>当日新增来京人员总数</t>
-  </si>
-  <si>
-    <t>来京人员累计总数(含当日新增) (A)</t>
-  </si>
-  <si>
-    <t>从湖北省或途径湖北来京员工人数</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>从湖北省以外地区来京员工人数</t>
-  </si>
-  <si>
     <t>联系人</t>
   </si>
   <si>
@@ -49,24 +37,12 @@
     <t>人数合计(B)</t>
   </si>
   <si>
-    <t>其中未返京人数(C)</t>
-  </si>
-  <si>
-    <t>其中已返京人数(D)</t>
-  </si>
-  <si>
-    <t>已返京人员中自行隔离(14天)人数</t>
-  </si>
-  <si>
     <t>过隔离期人数</t>
   </si>
   <si>
     <t>人数合计(E)</t>
   </si>
   <si>
-    <t>其中未返京人数(F)</t>
-  </si>
-  <si>
     <t>其中已返京人数(G)</t>
   </si>
   <si>
@@ -79,50 +55,102 @@
     <t>联系电话</t>
   </si>
   <si>
-    <t>打卡时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否填写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>居住地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否返京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打卡地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未返京原因</t>
-  </si>
-  <si>
-    <t>体温</t>
-  </si>
-  <si>
-    <t>是否确诊</t>
-  </si>
-  <si>
-    <t>是否就诊入院</t>
-  </si>
-  <si>
-    <t>健康状况其他情况</t>
-  </si>
-  <si>
-    <t>是否在隔离期</t>
-  </si>
-  <si>
-    <t>是否离开过北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>当日新增来工作地人员总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来工作地人员累计总数(含当日新增) (A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从湖北省或途径湖北来工作地员工人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中未返工作地人数(C)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中已返工作地人数(D)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已返工作地人员中自行隔离(14天)人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从湖北省以外地区来工作地员工人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中未返工作地人数(F)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在工作地居住地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前时间,当前地点/城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未返工作地原因（身体不适/当地未放行等）</t>
+  </si>
+  <si>
+    <t>计划返工作地时间</t>
+  </si>
+  <si>
+    <t>是否从其他城市返回工作地</t>
+  </si>
+  <si>
+    <t>返回工作地统计.返程出发地</t>
+  </si>
+  <si>
+    <t>返回工作地统计.航班/车次/车牌号</t>
+  </si>
+  <si>
+    <t>开始观察日期</t>
+  </si>
+  <si>
+    <t>近14天是否离过打卡城市</t>
+  </si>
+  <si>
+    <t>返回打卡地点时间</t>
+  </si>
+  <si>
+    <t>返回打卡地点所乘交通工具</t>
+  </si>
+  <si>
+    <t>体温（°C）</t>
+  </si>
+  <si>
+    <t>目前健康状况</t>
+  </si>
+  <si>
+    <t>其他不适症状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有就诊住院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有接触过疑似病患、接待过来自湖北的亲戚朋友、或者经过武汉</t>
+  </si>
+  <si>
+    <t>在岗状态</t>
+  </si>
+  <si>
+    <t>可在这里补充希望获得的帮助</t>
   </si>
 </sst>
 </file>
@@ -366,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -386,6 +414,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -727,32 +756,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
     <col min="3" max="3" width="53.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.83203125" customWidth="1"/>
-    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="75.6640625" customWidth="1"/>
+    <col min="8" max="8" width="40.5" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="10" max="10" width="27.1640625" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="37" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" customWidth="1"/>
+    <col min="14" max="14" width="24" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
     <col min="16" max="16" width="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="75.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="67.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" customWidth="1"/>
+    <col min="20" max="20" width="16.1640625" customWidth="1"/>
+    <col min="21" max="21" width="63.83203125" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="23" max="23" width="29.1640625" customWidth="1"/>
+    <col min="24" max="24" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -760,141 +793,141 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="O1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>7</v>
-      </c>
       <c r="P1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1">
       <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="16" thickBot="1">
@@ -984,52 +1017,73 @@
     </row>
     <row r="10" spans="1:23" s="2" customFormat="1">
       <c r="A10" s="11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="G10" s="11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="O10" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>31</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="U10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1046,7 +1100,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:V2 A9:X9 W1:X2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:D2 A9:X9 W1:X2 A1 E1:H1 H2:I2 J1:V1 M2:V2 K2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>